--- a/data/output/prediction_Close_DOT.xlsx
+++ b/data/output/prediction_Close_DOT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +458,7 @@
         <v>0.04756510840514494</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0006139511933795916</v>
+        <v>0.0006138989740893663</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>-0.01168085961275533</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06152841315326185</v>
+        <v>0.06152855716974237</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>-0.08156693224734957</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05214928615285963</v>
+        <v>0.05214927618481724</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.02102389979170716</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04688653162444112</v>
+        <v>-0.04688671782810871</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>-0.03960913809504585</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.01992861013985703</v>
+        <v>-0.01992846083740218</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>-0.004338401598598107</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.03630056167199491</v>
+        <v>-0.03630060775992128</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>-0.07678714321377034</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.006182424548773824</v>
+        <v>-0.0061824239086814</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>-0.01736428790933608</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.006602915185629499</v>
+        <v>-0.006602862226305461</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>-0.02580788395587263</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02136562001574127</v>
+        <v>-0.02136572342954146</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.05251803428344637</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.01742774722772289</v>
+        <v>-0.01742774628892363</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>-0.001551590691418747</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02946968185690224</v>
+        <v>0.02946962751795823</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.01846206283973517</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02028800547912368</v>
+        <v>0.02028810888177901</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>-0.02939113337192545</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004594878475963071</v>
+        <v>0.00459487800193159</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.001568627772626341</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00796211004945846</v>
+        <v>-0.007962316729516417</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.007806440892829558</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002646513878531209</v>
+        <v>0.002646565891357255</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>-0.01725533009076186</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01477182908523034</v>
+        <v>0.0147718808238384</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.007880261425305957</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.005116773069479663</v>
+        <v>-0.005116824310951174</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.02020270731751928</v>
       </c>
       <c r="B20" t="n">
-        <v>0.008906010677121046</v>
+        <v>0.008906163492866881</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>-0.009273636785328998</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02093312319408014</v>
+        <v>0.02093312108991441</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>-0.01564977166712778</v>
       </c>
       <c r="B22" t="n">
-        <v>0.005086278783874576</v>
+        <v>0.005086080348297273</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>-0.001578532293049717</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.005924217840890478</v>
+        <v>-0.005924118875421769</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>-0.01271877240777464</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01449288376219471</v>
+        <v>-0.01449278275537935</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>-0.01288262583101374</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.02739012349140069</v>
+        <v>-0.0273901725923924</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.001619433552302985</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.004555389673498667</v>
+        <v>-0.004555493722138593</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>-0.01139149828609543</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00210477024987199</v>
+        <v>0.002104978492218024</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>-0.009868501140753994</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005994534940302998</v>
+        <v>0.005994482285165859</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.03412191306925716</v>
       </c>
       <c r="B29" t="n">
-        <v>0.001679456952427216</v>
+        <v>0.001679353508034609</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>-0.01610340756657869</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01257060957335732</v>
+        <v>0.01257076254448997</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>-0.00978800636616306</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.007766135163812748</v>
+        <v>-0.007766288134945398</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>-0.03503277351577028</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00858761550875542</v>
+        <v>-0.008587719171003982</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>-0.008525200823359613</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.009682597273567239</v>
+        <v>-0.009682336605076003</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>0.01360565205577879</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0003147480027134719</v>
+        <v>0.0003147479533041064</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>0.08263808935361361</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008503606628471161</v>
+        <v>0.008503397795701417</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>0.006201570263281164</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03792225184742826</v>
+        <v>0.03792230372336469</v>
       </c>
     </row>
     <row r="37">
@@ -738,7 +738,7 @@
         <v>0.02799560748942698</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.003937735766957218</v>
+        <v>-0.003937638718657155</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>0.01522099401035537</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.001791951715237161</v>
+        <v>-0.001791951541173731</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>-0.02446605215440645</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0004081534116728847</v>
+        <v>0.0004081533719979547</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>-0.03304785404620025</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.01982575314808344</v>
+        <v>-0.019825850330772</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>0.02527780718426853</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.01910767868027108</v>
+        <v>-0.01910752711882857</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>0.09516834589159862</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.005841636912469639</v>
+        <v>-0.005841636024511487</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>0.009880108599707116</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04350320782523909</v>
+        <v>0.04350324998856969</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>-0.1223580920263976</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01385643135569303</v>
+        <v>-0.0138566259684243</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>-0.1523005405390967</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.07985570324950864</v>
+        <v>-0.07985564981646043</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>0.09849783454612049</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1477979236897742</v>
+        <v>-0.1477979151790336</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>-0.03754707259525158</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01421707381032178</v>
+        <v>0.01421707293589414</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>0.01894974877966216</v>
       </c>
       <c r="B49" t="n">
-        <v>0.006356252559591269</v>
+        <v>0.006356130807807503</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>0.0101868453069931</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.009377087567214559</v>
+        <v>-0.009376965630671918</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>-0.03611742522799544</v>
       </c>
       <c r="B51" t="n">
-        <v>0.005238489791871359</v>
+        <v>0.005238489471832253</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>-0.00702990592825814</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.02029799658321529</v>
+        <v>-0.02029799533373833</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>-0.00353357258131104</v>
       </c>
       <c r="B53" t="n">
-        <v>0.004535999001729962</v>
+        <v>0.004536060622431393</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>-0.08685048888695812</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005419552172616804</v>
+        <v>0.005419489935915678</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>0.01912104144677862</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0450257620898924</v>
+        <v>-0.04502582365745056</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>0.02985296314968111</v>
       </c>
       <c r="B56" t="n">
-        <v>0.006819837120012551</v>
+        <v>0.006819773154694175</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>-0.009233675946945574</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02987235948570799</v>
+        <v>0.02987248553380439</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>-0.02441435817128723</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0310831415252526</v>
+        <v>0.03108319980793794</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>-0.02502536756694029</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.0017387455770006</v>
+        <v>-0.001738805654998288</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>0.03260116137539781</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.03353063423974589</v>
+        <v>-0.03353063218399477</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>0.02974196919873751</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.009099558301240762</v>
+        <v>-0.009099494818260112</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>-0.009199696898423371</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03510253127685203</v>
+        <v>0.03510228396463866</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>0.03808257104720947</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.008120999545745633</v>
+        <v>-0.008120755583123085</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>-0.02522656294567538</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01138788313199512</v>
+        <v>0.01138776065538849</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>0.003642991278500984</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.01389591733660467</v>
+        <v>-0.01389585594452036</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>-0.03892984636821728</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004765545071014898</v>
+        <v>0.004765422578710599</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>0.02427756958134686</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.01057509972410031</v>
+        <v>-0.01057497687409459</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>-0.02238899489347879</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01599008297881532</v>
+        <v>0.01599020353977565</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>-0.02483413203773832</v>
       </c>
       <c r="B69" t="n">
-        <v>0.00290230396736213</v>
+        <v>0.002902061062478367</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>0.0210534091978325</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01014394516542616</v>
+        <v>0.010144065742141</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>-0.01238700926543457</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01875360881318322</v>
+        <v>0.01875378430326613</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>0.002872189624095967</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01331837706614714</v>
+        <v>0.0133181415934871</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>-0.1171140434204136</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.01221503114234501</v>
+        <v>-0.01221520755212779</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>-0.0374509988524121</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.0453946199526527</v>
+        <v>-0.04539432047463343</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>0.02729643390326442</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.02569796228988785</v>
+        <v>-0.02569783281448856</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>-0.02640417419651087</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01941489140600972</v>
+        <v>0.01941482462824418</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>0.01020417017424169</v>
       </c>
       <c r="B77" t="n">
-        <v>0.007408880558280373</v>
+        <v>0.007409002116789409</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>-0.01288334123429014</v>
       </c>
       <c r="B78" t="n">
-        <v>0.007725657854152246</v>
+        <v>0.007725411521629866</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>0.02167267489889624</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.005786171475387292</v>
+        <v>-0.005786293813036636</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>-0.02055548117304418</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02653643694966945</v>
+        <v>0.0265364982954619</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>-0.04382262112517799</v>
       </c>
       <c r="B81" t="n">
-        <v>0.003266878163248776</v>
+        <v>0.003266937707707029</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>0.005351961582315878</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.02688457456138771</v>
+        <v>-0.02688457293884738</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>0.003475041143260915</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.006960505903592207</v>
+        <v>-0.006960505476355294</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>0.03811713709923481</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.000912935226457634</v>
+        <v>-0.0009129351701986366</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>0.007540510335148909</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01401929379191991</v>
+        <v>0.01401941451809385</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>0.02315019305934851</v>
       </c>
       <c r="B86" t="n">
-        <v>0.002203295387067428</v>
+        <v>0.002202991693526002</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>-0.002594035177046594</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.002011392736243067</v>
+        <v>-0.002011210638809047</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>0.01375774064182345</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.003383170821594561</v>
+        <v>-0.003383536534915521</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>0.04242617255254677</v>
       </c>
       <c r="B89" t="n">
-        <v>0.007426738489773044</v>
+        <v>0.007426982887240641</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>0.006729912216199008</v>
       </c>
       <c r="B90" t="n">
-        <v>0.00961086205642836</v>
+        <v>0.009610922591720694</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>0.04277131287630476</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0111515721999762</v>
+        <v>0.01115151290858662</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>0.01871377077437608</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02314686921605613</v>
+        <v>0.02314692850744571</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>0.03179050745585643</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04101435409019594</v>
+        <v>0.04101440969684589</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>0.07334062409728248</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0519982827215788</v>
+        <v>0.05199817432583664</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>0.02447436911372614</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0789961077670025</v>
+        <v>0.0789965507913557</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>-0.05221273712860897</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02685050887141749</v>
+        <v>0.02685011863615649</v>
       </c>
     </row>
     <row r="97">
@@ -1234,7 +1234,7 @@
         <v>-0.05789397841890254</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02612394036532173</v>
+        <v>0.02612385067168965</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>0.03304510362022817</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.004649657673336804</v>
+        <v>-0.004649477868063912</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>0.01134345159886752</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01544455995661664</v>
+        <v>0.01544455857557381</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>0.01730915543905365</v>
       </c>
       <c r="B103" t="n">
-        <v>0.002546163410960034</v>
+        <v>0.002546251690278112</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>-0.06185924849873947</v>
       </c>
       <c r="B104" t="n">
-        <v>0.001479239448809011</v>
+        <v>0.001479239187162307</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>0.01124509841550236</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.01178063818526986</v>
+        <v>-0.01178072551214093</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>0.03253213735244853</v>
       </c>
       <c r="B106" t="n">
-        <v>0.003790533836600218</v>
+        <v>0.003790622581366421</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>0.01168345342314603</v>
       </c>
       <c r="B107" t="n">
-        <v>0.02532921277136602</v>
+        <v>0.02532894775017525</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>0.06865657774648848</v>
       </c>
       <c r="B108" t="n">
-        <v>0.006712937844120859</v>
+        <v>0.006713197246975611</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>-0.07617367995343605</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.07842984551354e-05</v>
+        <v>-1.069802175734935e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>0.0665671826767924</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.02354481091187743</v>
+        <v>-0.02354506973640369</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>-0.02686685178740911</v>
       </c>
       <c r="B111" t="n">
-        <v>0.007100248851111601</v>
+        <v>0.007100511967081502</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>-0.08040042543803771</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.006330570076386266</v>
+        <v>-0.006330656667731915</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>-0.007889904869121889</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.04691549639434989</v>
+        <v>-0.04691558041711552</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>-0.00697545208108763</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.02466056582232845</v>
+        <v>-0.02466056351281942</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>0.01358145370852482</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.01127486257838761</v>
+        <v>-0.01127457384420438</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>0.05999150406846265</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02551687949892667</v>
+        <v>0.02551640248273479</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>-0.04405998979403059</v>
       </c>
       <c r="B117" t="n">
-        <v>0.07399954698242439</v>
+        <v>0.07399990086375219</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>0.1408539717006143</v>
       </c>
       <c r="B118" t="n">
-        <v>0.003319149205207594</v>
+        <v>0.003318888794520802</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>0.03599984295592717</v>
       </c>
       <c r="B119" t="n">
-        <v>0.03724798878212177</v>
+        <v>0.03724815548745042</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>-0.04054061443183299</v>
       </c>
       <c r="B120" t="n">
-        <v>0.02918862520429499</v>
+        <v>0.02918862040872483</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>-0.009004701698128725</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.006449054157652512</v>
+        <v>-0.006449216067411001</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>-0.01302630647137715</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.02076980487507818</v>
+        <v>-0.02076972168643465</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>-0.06991976766034869</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.005903319917285543</v>
+        <v>-0.005903235743565105</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>-0.005305856455740221</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.02760978466234754</v>
+        <v>-0.02760986600091542</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>-0.03590049777952764</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.00771114980222265</v>
+        <v>-0.007711235826018736</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>0.02919008675185197</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.01213779893365441</v>
+        <v>-0.01213771118531781</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>-0.03108253330308286</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01898618807683228</v>
+        <v>0.01898627252458063</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>-0.04818261395881329</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.001066893268665936</v>
+        <v>-0.001067151654710941</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>-0.01957075091837468</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.03846942590521252</v>
+        <v>-0.03846951885573979</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>-0.01240773970238074</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.01197874757367856</v>
+        <v>-0.01197838713395427</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>-0.04298355596583847</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.008578239863872739</v>
+        <v>-0.008578329732527479</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>-0.0393278426193433</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.01601527265553671</v>
+        <v>-0.0160151782728164</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>0.03000042073541231</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.05374447946524263</v>
+        <v>-0.05374456724205601</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>0.09467103983550129</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.02916803256960776</v>
+        <v>-0.02916813060609691</v>
       </c>
     </row>
     <row r="135">
@@ -1530,7 +1530,7 @@
         <v>0.03578378778295654</v>
       </c>
       <c r="B137" t="n">
-        <v>0.008590414658550927</v>
+        <v>0.008590498144361192</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>0.08347358894003576</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02077650928915098</v>
+        <v>0.02077650757250282</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>-0.08281677446650515</v>
       </c>
       <c r="B139" t="n">
-        <v>0.06327007006001573</v>
+        <v>0.06327014180262402</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>0.04352352921773983</v>
       </c>
       <c r="B140" t="n">
-        <v>0.03191173131500236</v>
+        <v>0.03191172649351692</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>-0.04994594734110502</v>
       </c>
       <c r="B141" t="n">
-        <v>0.02767672724988657</v>
+        <v>0.02767657855960159</v>
       </c>
     </row>
     <row r="142">
